--- a/test/TestFile/simpleTestData/js/translate.xlsx
+++ b/test/TestFile/simpleTestData/js/translate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>EN</t>
   </si>
@@ -53,10 +53,6 @@
   </si>
   <si>
     <t>错误日志</t>
-  </si>
-  <si>
-    <t>CN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>We are not ' the " same</t>
@@ -117,6 +113,66 @@
   </si>
   <si>
     <t>日志内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我們不一樣咩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這條肯定不能被刪除的咩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏控制詞條</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏不一樣所以肯定被提取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒有對應的結束宏，可以被提取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符號提取驗證項</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>換行和tab驗證：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時間組一：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>類型：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統日誌：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack 'Log"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錯誤日誌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日誌內容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,132 +625,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="28.25" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
+    <col min="3" max="3" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
-        <v>28</v>
+      <c r="C15" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -702,7 +802,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:A7 A9:A14" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:A7 A9:A14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>